--- a/excel_list.xlsx
+++ b/excel_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60096224\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60096224\Documents\birthday_sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFAA9DA-05CA-42B5-A3FA-B0CADDC1359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C925047-1F4E-4864-89D4-90889E4ED639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{BE778DBE-01BA-4234-A2F6-AB9B6C412CB0}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Divisions</t>
-  </si>
-  <si>
-    <t>Отдел управления ценностью данных</t>
-  </si>
-  <si>
-    <t>Отдел развития продуктов и культуры данных</t>
-  </si>
-  <si>
-    <t>Отдел разработки платформенных сервисов</t>
-  </si>
-  <si>
-    <t>Платформа приложений</t>
+    <t>Departments</t>
   </si>
 </sst>
 </file>
@@ -111,7 +99,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -273,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,11 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB7BDF1-B5BE-467F-A50A-403F8CDDB890}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,26 +428,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
